--- a/Export/Model-Perf_Summary_v5.xlsx
+++ b/Export/Model-Perf_Summary_v5.xlsx
@@ -71,7 +71,7 @@
  [ 7  4]]</t>
   </si>
   <si>
-    <t>[[52  7]
+    <t>[[50  9]
  [ 9  2]]</t>
   </si>
   <si>
@@ -79,7 +79,7 @@
  [ 7  5]]</t>
   </si>
   <si>
-    <t>[[36 22]
+    <t>[[35 23]
  [ 7  5]]</t>
   </si>
   <si>
@@ -103,7 +103,7 @@
  [ 7  5]]</t>
   </si>
   <si>
-    <t>[[31 27]
+    <t>[[29 29]
  [ 4  8]]</t>
   </si>
 </sst>
@@ -519,16 +519,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.7714</v>
+        <v>0.7429</v>
       </c>
       <c r="D3">
-        <v>0.2222</v>
+        <v>0.1818</v>
       </c>
       <c r="E3">
         <v>0.1818</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.1818</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -565,16 +565,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.5857</v>
+        <v>0.5714</v>
       </c>
       <c r="D5">
-        <v>0.1852</v>
+        <v>0.1786</v>
       </c>
       <c r="E5">
         <v>0.4167</v>
       </c>
       <c r="F5">
-        <v>0.2564</v>
+        <v>0.25</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -726,16 +726,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.5571</v>
+        <v>0.5286</v>
       </c>
       <c r="D12">
-        <v>0.2286</v>
+        <v>0.2162</v>
       </c>
       <c r="E12">
         <v>0.6667</v>
       </c>
       <c r="F12">
-        <v>0.3404</v>
+        <v>0.3265</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
